--- a/Supplementary data/CellCycle_Phosphorylation_Predictions.xlsx
+++ b/Supplementary data/CellCycle_Phosphorylation_Predictions.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirksmi\Documents\GitHub\CAROM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirksmi\Documents\GitHub\CAROM\Supplementary data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C6BE1-6AD0-453E-8BD8-8EFD31D035B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4574CD19-BB5B-4D7D-9A68-F530238E6675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phosphorylation_TruePos" sheetId="1" r:id="rId1"/>
     <sheet name="Phosphorylation_FalseNeg" sheetId="2" r:id="rId2"/>
     <sheet name="Phosphorylation_FalsePos" sheetId="3" r:id="rId3"/>
+    <sheet name="PhosPredict_Unique" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="91">
   <si>
     <t>genes</t>
   </si>
@@ -289,6 +290,12 @@
   </si>
   <si>
     <t>MANt1r</t>
+  </si>
+  <si>
+    <t>Genes</t>
+  </si>
+  <si>
+    <t>Reactions</t>
   </si>
 </sst>
 </file>
@@ -772,8 +779,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3040,4 +3048,357 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6412E68-8FCD-433B-9621-8E1EEEA77958}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>